--- a/docs/recsys-cluster-loss-example.xlsx
+++ b/docs/recsys-cluster-loss-example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-cluster-loss\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4749C24-E8E3-402A-B163-C1FBEEA8745B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112533CB-BE3E-4DD0-99CC-8691C180B898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" xr2:uid="{1F5C19FF-B230-4FEF-8817-0EE2D2EDE492}"/>
   </bookViews>
@@ -26,6 +26,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4305,9 +4312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62C7114-E253-4DE0-B3FD-FCF3397B7D9C}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/docs/recsys-cluster-loss-example.xlsx
+++ b/docs/recsys-cluster-loss-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-cluster-loss\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112533CB-BE3E-4DD0-99CC-8691C180B898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F2AA87-46BC-4E47-A77D-E314B16755F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" xr2:uid="{1F5C19FF-B230-4FEF-8817-0EE2D2EDE492}"/>
   </bookViews>

--- a/docs/recsys-cluster-loss-example.xlsx
+++ b/docs/recsys-cluster-loss-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-cluster-loss\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F2AA87-46BC-4E47-A77D-E314B16755F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD882BD-AF5B-4689-AC89-6CE38BB06929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" xr2:uid="{1F5C19FF-B230-4FEF-8817-0EE2D2EDE492}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="X-estimada" sheetId="28" r:id="rId3"/>
     <sheet name="Rpol" sheetId="17" r:id="rId4"/>
     <sheet name="Rindv" sheetId="18" r:id="rId5"/>
-    <sheet name="RgrpNA" sheetId="21" r:id="rId6"/>
+    <sheet name="RgrpNR" sheetId="21" r:id="rId6"/>
     <sheet name="RgrpSexo" sheetId="26" r:id="rId7"/>
     <sheet name="Eficacia" sheetId="23" r:id="rId8"/>
   </sheets>
@@ -64,7 +64,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Número de avaliações realizadas para os itens disponíveis</t>
+number of ratings: número de avaliações realizadas para os itens disponíveis</t>
         </r>
       </text>
     </comment>
@@ -450,9 +450,6 @@
     <t>SPI</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>MA</t>
   </si>
   <si>
@@ -811,6 +808,9 @@
   </si>
   <si>
     <t>AGE</t>
+  </si>
+  <si>
+    <t>NR</t>
   </si>
 </sst>
 </file>
@@ -4337,7 +4337,7 @@
       <c r="G1" s="38"/>
       <c r="I1" s="2"/>
       <c r="J1" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
@@ -4347,34 +4347,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4403,10 +4403,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2">
         <v>5</v>
@@ -4438,10 +4438,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" s="2">
         <v>10</v>
@@ -4473,10 +4473,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="2">
         <v>15</v>
@@ -4508,10 +4508,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L6" s="2">
         <v>20</v>
@@ -4543,10 +4543,10 @@
         <v>5</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7" s="2">
         <v>25</v>
@@ -4578,10 +4578,10 @@
         <v>6</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" s="2">
         <v>30</v>
@@ -4613,10 +4613,10 @@
         <v>7</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2">
         <v>35</v>
@@ -4648,10 +4648,10 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" s="2">
         <v>40</v>
@@ -4683,10 +4683,10 @@
         <v>9</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" s="2">
         <v>45</v>
@@ -4718,10 +4718,10 @@
         <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" s="2">
         <v>50</v>
@@ -4753,10 +4753,10 @@
         <v>11</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L13" s="2">
         <v>55</v>
@@ -4788,10 +4788,10 @@
         <v>12</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L14" s="2">
         <v>60</v>
@@ -4823,10 +4823,10 @@
         <v>13</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L15" s="2">
         <v>65</v>
@@ -4858,10 +4858,10 @@
         <v>14</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L16" s="2">
         <v>70</v>
@@ -4893,10 +4893,10 @@
         <v>15</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="2">
         <v>75</v>
@@ -4928,10 +4928,10 @@
         <v>16</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L18" s="2">
         <v>80</v>
@@ -4963,10 +4963,10 @@
         <v>17</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L19" s="2">
         <v>85</v>
@@ -4998,10 +4998,10 @@
         <v>18</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L20" s="2">
         <v>90</v>
@@ -5033,10 +5033,10 @@
         <v>19</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L21" s="2">
         <v>95</v>
@@ -5068,10 +5068,10 @@
         <v>20</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L22" s="2">
         <v>100</v>
@@ -5587,7 +5587,7 @@
       <c r="T1" s="38"/>
       <c r="U1" s="39"/>
       <c r="W1" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X1" s="41"/>
       <c r="Y1" s="41"/>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="44"/>
       <c r="Z2" s="44"/>
@@ -5718,7 +5718,7 @@
       <c r="U3" s="2"/>
       <c r="W3" s="4"/>
       <c r="X3" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y3" s="44"/>
       <c r="Z3" s="44"/>
@@ -5821,7 +5821,7 @@
         <v>4</v>
       </c>
       <c r="X5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7544,7 +7544,7 @@
       <c r="T1" s="38"/>
       <c r="U1" s="39"/>
       <c r="W1" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X1" s="41"/>
       <c r="Y1" s="41"/>
@@ -7618,7 +7618,7 @@
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="44"/>
       <c r="Z2" s="44"/>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="W3" s="4"/>
       <c r="X3" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y3" s="44"/>
       <c r="Z3" s="44"/>
@@ -7828,7 +7828,7 @@
         <v>4</v>
       </c>
       <c r="X5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10286,7 +10286,7 @@
       <c r="T1" s="38"/>
       <c r="U1" s="39"/>
       <c r="W1" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X1" s="41"/>
       <c r="Y1" s="41"/>
@@ -10360,7 +10360,7 @@
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="44"/>
       <c r="Z2" s="44"/>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="W3" s="4"/>
       <c r="X3" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y3" s="44"/>
       <c r="Z3" s="44"/>
@@ -11740,7 +11740,7 @@
         <v>2</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X23" s="19">
         <f>V44</f>
@@ -13007,7 +13007,7 @@
     </row>
     <row r="44" spans="1:22" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="26">
         <f>_xlfn.VAR.P(B3:B42)</f>
@@ -13256,7 +13256,7 @@
       <c r="T1" s="38"/>
       <c r="U1" s="39"/>
       <c r="X1" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y1" s="41"/>
       <c r="Z1" s="41"/>
@@ -13329,12 +13329,12 @@
         <v>20</v>
       </c>
       <c r="V2" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W2" s="7"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z2" s="44"/>
       <c r="AA2" s="44"/>
@@ -13412,7 +13412,7 @@
       <c r="W3" s="12"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z3" s="44"/>
       <c r="AA3" s="44"/>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="W5" s="12"/>
       <c r="AB5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14332,7 +14332,7 @@
       </c>
       <c r="W16" s="12"/>
       <c r="X16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y16" s="32">
         <f>_xlfn.VAR.P(V3:V42)</f>
@@ -16321,7 +16321,7 @@
       <c r="T1" s="38"/>
       <c r="U1" s="39"/>
       <c r="Y1" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z1" s="41"/>
       <c r="AA1" s="41"/>
@@ -16394,14 +16394,14 @@
         <v>20</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W2" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="57"/>
       <c r="AB2" s="57"/>
@@ -16482,7 +16482,7 @@
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA3" s="57"/>
       <c r="AB3" s="57"/>
@@ -16560,7 +16560,7 @@
       <c r="W4" s="53"/>
       <c r="Y4" s="20"/>
       <c r="Z4" s="56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA4" s="57"/>
       <c r="AB4" s="57"/>
@@ -16641,7 +16641,7 @@
       </c>
       <c r="Y5" s="28"/>
       <c r="Z5" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA5" s="57"/>
       <c r="AB5" s="57"/>
@@ -17348,7 +17348,7 @@
       </c>
       <c r="W15" s="55"/>
       <c r="Y15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z15" s="46">
         <f>_xlfn.VAR.P(W3,W5)</f>
@@ -17429,10 +17429,10 @@
       </c>
       <c r="W16" s="55"/>
       <c r="Y16" s="3" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="Z16" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA16" s="50"/>
       <c r="AB16" s="50"/>
@@ -19283,7 +19283,7 @@
     </row>
     <row r="44" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="16">
         <f>_xlfn.VAR.S(B3:B42)</f>
@@ -19514,7 +19514,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>0</v>
@@ -19539,13 +19539,13 @@
       <c r="T1" s="38"/>
       <c r="U1" s="39"/>
       <c r="W1" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X1" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y1" s="62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z1" s="63"/>
       <c r="AA1" s="63"/>
@@ -19618,17 +19618,17 @@
         <v>20</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>27</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" s="60"/>
       <c r="AB2" s="60"/>
@@ -19713,7 +19713,7 @@
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA3" s="60"/>
       <c r="AB3" s="60"/>
@@ -19791,7 +19791,7 @@
       <c r="W4" s="30"/>
       <c r="Y4" s="20"/>
       <c r="Z4" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA4" s="60"/>
       <c r="AB4" s="60"/>
@@ -19869,7 +19869,7 @@
       <c r="W5" s="31"/>
       <c r="Y5" s="28"/>
       <c r="Z5" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA5" s="60"/>
       <c r="AB5" s="60"/>
@@ -20576,7 +20576,7 @@
       </c>
       <c r="W15" s="30"/>
       <c r="Y15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z15" s="46" t="e">
         <f>_xlfn.VAR.P(W3,X3)</f>
@@ -20660,7 +20660,7 @@
         <v>2</v>
       </c>
       <c r="Z16" s="49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA16" s="50"/>
       <c r="AB16" s="50"/>
@@ -22571,7 +22571,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="14">
         <f>AVERAGE(B3:B42)</f>
@@ -22656,7 +22656,7 @@
     </row>
     <row r="45" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="16">
         <f>_xlfn.VAR.S(B3:B42)</f>
@@ -22910,7 +22910,7 @@
       <c r="T1" s="38"/>
       <c r="U1" s="39"/>
       <c r="X1" s="65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y1" s="66"/>
       <c r="Z1" s="66"/>
@@ -22986,7 +22986,7 @@
       <c r="W2" s="7"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z2" s="44"/>
       <c r="AA2" s="44"/>
@@ -23064,7 +23064,7 @@
       <c r="W3" s="12"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z3" s="44"/>
       <c r="AA3" s="44"/>
@@ -23631,7 +23631,7 @@
       </c>
       <c r="W11" s="12"/>
       <c r="X11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y11" s="3">
         <f>SQRT(V44)</f>
@@ -25834,7 +25834,7 @@
         <v>4310</v>
       </c>
       <c r="W43" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
@@ -25863,7 +25863,7 @@
         <v>5.3875000000000002</v>
       </c>
       <c r="W44" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
